--- a/reiger/countiterations.xlsx
+++ b/reiger/countiterations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="1420" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -474,49 +474,49 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <f>SUM(A2:E2)</f>
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <f>A2</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(B2, Sheet2!A:B, 2, FALSE)</f>
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(C2, Sheet2!A:B, 2, FALSE)</f>
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(D2, Sheet2!A:B, 2, FALSE)</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(E2, Sheet2!A:B, 2, FALSE)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
         <f>PRODUCT(A3:E3)</f>
-        <v>176418000</v>
+        <v>426305880</v>
       </c>
     </row>
   </sheetData>
